--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2392843.527961904</v>
+        <v>2497023.162412975</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.4063664900302</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>274.3393327866134</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824759</v>
+        <v>18.81721868247945</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>4.670144655843314</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>73.6193233688147</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50.73003670622179</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>18.02677641696904</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>5.715596255393478</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.1119575840971</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.12779304160851</v>
       </c>
       <c r="E8" t="n">
-        <v>330.9105130273996</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>116.312398112024</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>36.02761062923991</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>201.522856038096</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1664,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>218.227129859624</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>7.602497644399736</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>96.02642072444083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>21.44532649588036</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107638</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>112.528443452332</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>57.02356321678085</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>126.6321535627874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>38.95525409458224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>106.997776813539</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>41.02686156550228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1381.278680221564</v>
+        <v>1938.906022842683</v>
       </c>
       <c r="C2" t="n">
-        <v>1381.278680221564</v>
+        <v>1569.943505902271</v>
       </c>
       <c r="D2" t="n">
-        <v>1023.012981614814</v>
+        <v>1211.677807295521</v>
       </c>
       <c r="E2" t="n">
-        <v>1023.012981614814</v>
+        <v>1211.677807295521</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>800.6919025059135</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>385.61945235091</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218336</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136263</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136263</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792692</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522578</v>
+        <v>2325.505862906805</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261498</v>
+        <v>2325.505862906805</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285686</v>
+        <v>2325.505862906805</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999837</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387324</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332769</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601619</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.02130239278</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064754</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.76045543161</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266133</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501179</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.5934525793617</v>
+        <v>462.6853918125586</v>
       </c>
       <c r="C4" t="n">
-        <v>481.6572696514548</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>331.5406302391191</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.338775876041</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.52793265802</v>
       </c>
       <c r="U4" t="n">
-        <v>1349.648638344579</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V4" t="n">
-        <v>1349.648638344579</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W4" t="n">
-        <v>1060.231468307619</v>
+        <v>872.3234075408157</v>
       </c>
       <c r="X4" t="n">
-        <v>832.2419174096015</v>
+        <v>644.3338566427983</v>
       </c>
       <c r="Y4" t="n">
-        <v>832.2419174096015</v>
+        <v>644.3338566427983</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386631</v>
+        <v>1175.300932605791</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.181684446219</v>
+        <v>1175.300932605791</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>817.0352339990407</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>431.2469814007964</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>424.301480651593</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450752</v>
+        <v>1952.040104645725</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450752</v>
+        <v>1561.900772669913</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>783.4669865852867</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>614.5308036573798</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>464.414164245044</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>316.5010706626509</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>169.6111231647406</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242372</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1142.080320955405</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>887.3958327495184</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>887.3958327495184</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X7" t="n">
-        <v>659.406281851501</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.406281851501</v>
+        <v>783.4669865852867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1935.36653093099</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1566.404013990578</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1566.404013990578</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.36653093099</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>726.2447449267036</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>726.2447449267036</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>576.1281055143678</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>428.2150119319747</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>281.3250644340643</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>281.3250644340643</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1890.903022200371</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1890.903022200371</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1669.136406769897</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1380.033539895541</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1125.349051689654</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>1125.349051689654</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X10" t="n">
-        <v>1125.349051689654</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
     <row r="11">
@@ -5018,43 +5020,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5361,16 +5363,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>256.118667722925</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
@@ -5501,10 +5503,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5738,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5834,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3350.216519631757</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1880.464695940366</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.780207734479</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6305,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3113.560578231862</v>
+        <v>3301.483384420093</v>
       </c>
       <c r="C28" t="n">
-        <v>2944.624395303955</v>
+        <v>3132.547201492187</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>2982.430562079851</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>2834.517468497458</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>2687.627520999547</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>2520.431421714427</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
         <v>2337.686731866304</v>
@@ -6406,28 +6408,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4577.168058002298</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4577.168058002298</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.092831346496</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.40834314061</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="W28" t="n">
-        <v>3743.991173103649</v>
+        <v>3931.91397929188</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.001622205632</v>
+        <v>3703.924428393863</v>
       </c>
       <c r="Y28" t="n">
-        <v>3295.209043062102</v>
+        <v>3483.131849250333</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,13 +6548,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656489</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5309703533131</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>368.61787677092</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>221.7279292730097</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>3807.864035926977</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6977,10 +6979,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926976</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>4435.461999481583</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7634,64 +7636,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.371964087819705e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>50.61478728573198</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>60.88156453658583</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>68.29586847696697</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>172.2294825375376</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>230.6923168279476</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>68.49784254931257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>91.59190980143151</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.1352912260288974</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.9994244361423</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448193</v>
@@ -26329,31 +26331,31 @@
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813268</v>
+        <v>89744.12305813235</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813259</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26448,10 +26450,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890115.4377022983</v>
+        <v>-890115.4377022998</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252936</v>
+        <v>438629.3080252942</v>
       </c>
       <c r="D6" t="n">
         <v>438629.3080252935</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417112</v>
+        <v>188446.5348417114</v>
       </c>
       <c r="F6" t="n">
+        <v>513858.9966490665</v>
+      </c>
+      <c r="G6" t="n">
+        <v>513858.9966490665</v>
+      </c>
+      <c r="H6" t="n">
         <v>513858.9966490666</v>
-      </c>
-      <c r="G6" t="n">
-        <v>513858.9966490666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>513858.9966490665</v>
       </c>
       <c r="I6" t="n">
         <v>513858.9966490665</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517892</v>
+        <v>296327.7942517889</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490666</v>
+        <v>513858.9966490665</v>
       </c>
       <c r="L6" t="n">
         <v>513858.9966490665</v>
@@ -26555,10 +26557,10 @@
         <v>428803.9687135548</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490667</v>
+        <v>513858.9966490664</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490666</v>
+        <v>513858.9966490664</v>
       </c>
       <c r="P6" t="n">
         <v>513858.9966490666</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.4696792516812</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20.26843160070706</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162.5766764427845</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>212.5925148367982</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>303.9530049144612</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>392.8949492364844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.3102120036347</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>7.099880621515808</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>314.5552485790744</v>
       </c>
       <c r="E8" t="n">
-        <v>51.01985704486219</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>28.44261680229683</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.90454204080743</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31993,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32081,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>453.7122424932254</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32315,28 +32317,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32552,22 +32554,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N21" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,16 +32791,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33266,16 +33268,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33497,25 +33499,25 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>254.8897444730604</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107742</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33971,28 +33973,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35641,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>322.3705304098921</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N21" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663297</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962379</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2497023.162412975</v>
+        <v>2493010.552398983</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>274.3393327866134</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>318.4070179429945</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247945</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>4.670144655843314</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>232.537065827398</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>111.4702381038692</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>18.02677641696904</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.715596255393478</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>40.12779304160851</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>96.32693285396928</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>101.5052733364679</v>
       </c>
       <c r="H10" t="n">
-        <v>116.312398112024</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,22 +1344,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>201.522856038096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>246.814117789638</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>79.41314830963806</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>130.2301075198435</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>218.227129859624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.602497644399736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>21.44532649588036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>99.65140663107638</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>57.02356321678085</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>99.6514066310757</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U37" t="n">
-        <v>106.997776813539</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>180.8909947756157</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>79.9081607862897</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1938.906022842683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1569.943505902271</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.677807295521</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1211.677807295521</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>800.6919025059135</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>385.61945235091</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.33740552049</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176919</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906805</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906805</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906805</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999837</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387324</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332769</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601619</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.02130239278</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064754</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125859</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619339</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.76045543161</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266133</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501179</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>462.6853918125586</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C4" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.52793265802</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783663</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577776</v>
+        <v>1692.408623010313</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408157</v>
+        <v>1402.991452973352</v>
       </c>
       <c r="X4" t="n">
-        <v>644.3338566427983</v>
+        <v>1175.001902075335</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.3338566427983</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605791</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1175.300932605791</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>817.0352339990407</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>431.2469814007964</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>424.301480651593</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176919</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645725</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669913</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.4669865852867</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>614.5308036573798</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>464.414164245044</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>316.5010706626509</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>169.6111231647406</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1004.259565728817</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>783.4669865852867</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>512.2748146547618</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3118.015220960539</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>726.2447449267036</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="C10" t="n">
-        <v>726.2447449267036</v>
+        <v>711.2880532342227</v>
       </c>
       <c r="D10" t="n">
-        <v>576.1281055143678</v>
+        <v>561.171413821887</v>
       </c>
       <c r="E10" t="n">
-        <v>428.2150119319747</v>
+        <v>413.2583202394939</v>
       </c>
       <c r="F10" t="n">
-        <v>281.3250644340643</v>
+        <v>266.3683727415835</v>
       </c>
       <c r="G10" t="n">
-        <v>281.3250644340643</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.675339798491</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.685788900473</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.8932097569433</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,19 +5126,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>701.0383482155643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>550.9217088032285</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>403.0086152208354</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>256.118667722925</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>256.118667722925</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>596.0507082071276</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3860.426268812248</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>3571.009098775287</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>3571.009098775287</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>3350.216519631757</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,43 +5971,43 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207407</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3301.483384420093</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3132.547201492187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2982.430562079851</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2834.517468497458</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2687.627520999547</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2520.431421714427</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4221.331149328841</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3931.91397929188</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3703.924428393863</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3483.131849250333</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820188</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687975</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.244907039234</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.244907039234</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.169680383432</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.485192177545</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1431.068022140585</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242567</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990373</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.371964087819705e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>50.61478728573198</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.88156453658583</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>16.20385512672564</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.2294825375376</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>230.6923168279476</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>40.6433062151475</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>91.59190980143151</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U37" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>143.8269525734166</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1352912260288974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>80.44045370237417</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.0381379533</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="11">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
@@ -26352,10 +26352,10 @@
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813235</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890115.4377022998</v>
+        <v>-890115.4377022983</v>
       </c>
       <c r="C6" t="n">
-        <v>438629.3080252942</v>
+        <v>438629.3080252939</v>
       </c>
       <c r="D6" t="n">
         <v>438629.3080252935</v>
       </c>
       <c r="E6" t="n">
-        <v>188446.5348417114</v>
+        <v>188099.1555873542</v>
       </c>
       <c r="F6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="G6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947097</v>
       </c>
       <c r="H6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="I6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="J6" t="n">
-        <v>296327.7942517889</v>
+        <v>295980.4149974322</v>
       </c>
       <c r="K6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="L6" t="n">
-        <v>513858.9966490665</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="M6" t="n">
-        <v>428803.9687135548</v>
+        <v>428456.5894591979</v>
       </c>
       <c r="N6" t="n">
-        <v>513858.9966490664</v>
+        <v>513511.6173947094</v>
       </c>
       <c r="O6" t="n">
-        <v>513858.9966490664</v>
+        <v>513511.6173947096</v>
       </c>
       <c r="P6" t="n">
-        <v>513858.9966490666</v>
+        <v>513511.6173947094</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>20.26843160070706</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>67.83092071305907</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>162.5766764427845</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>19.60057749643005</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>271.2636035596114</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>392.8949492364844</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.3102120036347</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>314.5552485790744</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>154.6682391049327</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>64.52053492256029</v>
       </c>
       <c r="H10" t="n">
-        <v>28.44261680229683</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>381.285518532932</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>624.2063432190395</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>249.9438064495987</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>485.6519634391653</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2493010.552398983</v>
+        <v>2494771.082701769</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>318.4070179429945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.27693440363741</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>232.537065827398</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.4702381038692</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>105.0992283656639</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.2656173771016</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>96.32693285396928</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>101.5052733364679</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>47.41254713315932</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W13" t="n">
-        <v>246.814117789638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>130.2301075198435</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701402</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>78.91051008678102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758758</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.60701007315258</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,13 +4345,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794323</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794323</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>953.2602595377767</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4479,25 +4479,25 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1692.408623010313</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1402.991452973352</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1175.001902075335</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>954.2093229318045</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>927.3259024719448</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>927.3259024719448</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4722,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,22 +4746,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
         <v>1722.044275313594</v>
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3118.015220960539</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V8" t="n">
-        <v>2786.952333616968</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.2242361621296</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C10" t="n">
-        <v>711.2880532342227</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D10" t="n">
-        <v>561.171413821887</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E10" t="n">
-        <v>413.2583202394939</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F10" t="n">
-        <v>266.3683727415835</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>114.4035781828494</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.2242361621296</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
         <v>484.8112968429802</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5278,16 +5278,16 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,16 +5503,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5524,40 +5524,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>915.1035305473703</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1673476194634</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D19" t="n">
-        <v>596.0507082071276</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
         <v>317.6151975578601</v>
@@ -5667,10 +5667,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473703</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5995,16 +5995,16 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171305</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892237</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473703</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>135.97962399503</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,43 +6697,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075794</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
@@ -7371,13 +7371,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>94.65038286230657</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>94.65038286230657</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W13" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>16.20385512672564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>69.70496293143134</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>143.8269525734166</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>80.44045370237417</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796727.0381379531</v>
+        <v>796727.038137953</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796727.0381379533</v>
+        <v>796727.0381379531</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
@@ -26337,25 +26337,25 @@
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
@@ -26432,7 +26432,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26447,7 +26447,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890115.4377022983</v>
+        <v>-890115.4377022986</v>
       </c>
       <c r="C6" t="n">
+        <v>438629.3080252942</v>
+      </c>
+      <c r="D6" t="n">
         <v>438629.3080252939</v>
       </c>
-      <c r="D6" t="n">
-        <v>438629.3080252935</v>
-      </c>
       <c r="E6" t="n">
-        <v>188099.1555873542</v>
+        <v>188411.7969162756</v>
       </c>
       <c r="F6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="G6" t="n">
-        <v>513511.6173947097</v>
+        <v>513824.2587236305</v>
       </c>
       <c r="H6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="I6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="J6" t="n">
-        <v>295980.4149974322</v>
+        <v>296293.0563263536</v>
       </c>
       <c r="K6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="L6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236308</v>
       </c>
       <c r="M6" t="n">
-        <v>428456.5894591979</v>
+        <v>428769.230788119</v>
       </c>
       <c r="N6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236309</v>
       </c>
       <c r="O6" t="n">
-        <v>513511.6173947096</v>
+        <v>513824.2587236307</v>
       </c>
       <c r="P6" t="n">
-        <v>513511.6173947094</v>
+        <v>513824.2587236308</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.83092071305907</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.60057749643005</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>271.2636035596114</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>301.7768173760475</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2573809594894</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>154.6682391049327</v>
+        <v>32.12032840821831</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.52053492256029</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.93987327667877</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33654,13 +33654,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
